--- a/SampleTestcase.xlsx
+++ b/SampleTestcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t>Verifying GUI of the page</t>
   </si>
   <si>
-    <t>Verifying descripting text available at webpage</t>
-  </si>
-  <si>
     <t>Verify appropriate background colors available at webpage</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Click on Sign up link</t>
   </si>
   <si>
-    <t>System should navigate to registraion page and expected registration page shold contains expected fields like [FirstName, LastName, Email, DomainName,Password,RetypePassword,DOB[Day,Month,Year]Gender,Create Account ]</t>
-  </si>
-  <si>
     <t>Verifying Firstname Entry with valid data</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
   </si>
   <si>
     <t>Check firsntname with invalid characters using Numerics</t>
-  </si>
-  <si>
-    <t>Should not allow Numeric Characters</t>
   </si>
   <si>
     <t>Check firsntname with invalid characters using Special characters</t>
@@ -340,12 +331,45 @@
   <si>
     <t xml:space="preserve">System should fetch respective mobile operator and Circle Details </t>
   </si>
+  <si>
+    <t>Verifying descriptive text available at webpage</t>
+  </si>
+  <si>
+    <t>System should navigate to registraion page and expected registration page should contains expected fields like [FirstName, LastName, Email, DomainName,Password,RetypePassword,DOB[Day,Month,Year]Gender,Create Account ]</t>
+  </si>
+  <si>
+    <r>
+      <t>Should not allow Numeric Characters and display error message "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First Name allow only  alphabet characters</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +416,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -539,13 +571,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K408"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="G28:K29"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -883,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -1032,11 +1064,11 @@
         <v>16</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1051,11 +1083,11 @@
         <v>17</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -1070,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1091,11 +1123,11 @@
         <v>20</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1110,11 +1142,11 @@
         <v>21</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1126,14 +1158,14 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1154,13 +1186,13 @@
     </row>
     <row r="16" spans="1:11" ht="37.5">
       <c r="A16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>15</v>
@@ -1190,11 +1222,11 @@
         <v>17</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -1215,13 +1247,13 @@
     </row>
     <row r="19" spans="1:11" ht="56.25">
       <c r="A19" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>15</v>
@@ -1251,11 +1283,11 @@
         <v>17</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -1270,13 +1302,13 @@
         <v>18</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -1291,13 +1323,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -1312,13 +1344,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -1337,15 +1369,15 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" ht="37.5">
+    <row r="25" spans="1:11" ht="56.25">
       <c r="A25" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>15</v>
@@ -1375,17 +1407,17 @@
         <v>17</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
     </row>
-    <row r="27" spans="1:11" ht="37.5">
+    <row r="27" spans="1:11" ht="75">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1394,13 +1426,13 @@
         <v>18</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="18">
         <v>1234</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -1415,13 +1447,13 @@
         <v>20</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -6383,7 +6415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
@@ -6397,73 +6429,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6480,16 +6512,16 @@
     </row>
     <row r="8" spans="1:4" ht="60">
       <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
